--- a/ionic_liquids/datasets/compoundSMILES.xlsx
+++ b/ionic_liquids/datasets/compoundSMILES.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hbliu/Dropbox/DIRECT/ionic_liquids/ionic_liquids/datasets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="97">
   <si>
     <t>A_name</t>
   </si>
@@ -59,9 +54,6 @@
     <t>CCCC[n+]1ccccc1.C(F)(F)(F)S(=O)(=O)[N-]S(=O)(=O)C(F)(F)F</t>
   </si>
   <si>
-    <t xml:space="preserve">.gamma.-butyrolactone </t>
-  </si>
-  <si>
     <t>C1CC(=O)OC1</t>
   </si>
   <si>
@@ -147,9 +139,6 @@
   </si>
   <si>
     <t xml:space="preserve">1-butylpyridinium tetrafluoroborate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">methanol </t>
   </si>
   <si>
     <t>[B-](F)(F)(F)F.CCCC[n+]1ccccc1</t>
@@ -312,9 +301,6 @@
     <t>1-butyl-4-methylpyridinium tetrafluoroborate</t>
   </si>
   <si>
-    <t>ETHANOL</t>
-  </si>
-  <si>
     <t>3-tetradecyloxy-2-hydroxypropyltrimethylammonium chloride</t>
   </si>
   <si>
@@ -325,6 +311,9 @@
   </si>
   <si>
     <t>1-butyl-3-methylimidazolium bromide</t>
+  </si>
+  <si>
+    <t>ethanol</t>
   </si>
 </sst>
 </file>
@@ -449,7 +438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -484,7 +473,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -661,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -672,18 +661,18 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D48"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="71.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -697,7 +686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -711,7 +700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="21">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -719,643 +708,648 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="21">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="21">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="21">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21">
+      <c r="A18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21">
+      <c r="A19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="21">
+      <c r="A20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21">
+      <c r="A21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21">
+      <c r="A22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21">
+      <c r="A23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21">
+      <c r="A24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="21">
+      <c r="A25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="21">
+      <c r="A26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21">
+      <c r="A27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21">
+      <c r="A28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21">
+      <c r="A29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21">
+      <c r="A30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21">
+      <c r="A31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21">
+      <c r="A32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="21">
+      <c r="A33" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="21">
+      <c r="A34" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21">
+      <c r="A35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="D35" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="21">
+      <c r="A36" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="21">
+      <c r="A37" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="21">
+      <c r="A38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="42">
+      <c r="A39" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="21">
+      <c r="A40" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="21">
+      <c r="A41" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="21">
+      <c r="A42" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="21">
+      <c r="A43" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="21">
+      <c r="A44" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="21">
+      <c r="A45" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="21">
+      <c r="A46" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="21">
+      <c r="A47" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C47" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D47" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row r="48" spans="1:4" ht="21">
+      <c r="A48" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="46" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="8" t="s">
+      <c r="D48" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>